--- a/data/trans_bre/P16_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +636,50 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>120,55%</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>183,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -668,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 13,99</t>
+          <t>-7,19; 21,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 14,12</t>
+          <t>2,22; 19,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,21; —</t>
+          <t>1,66; 18,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>192,49%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>222,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,27%</t>
+          <t>72,94%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-44,94%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-10,43%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 9,05</t>
+          <t>-4,87; 14,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,83</t>
+          <t>-2,81; 12,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 12,57</t>
+          <t>-5,74; 17,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 6,37</t>
+          <t>-19,95; 7,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-36,82; 16,4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-50,24; 589,76</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,79; 153,8</t>
+          <t>-52,58; 709,97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-91,26; 199,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>58,03%</t>
+          <t>70,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>209,72%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,62%</t>
+          <t>92,24%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44,11%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,06%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 10,04</t>
+          <t>-4,61; 13,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 8,5</t>
+          <t>-8,04; 9,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 15,33</t>
+          <t>-4,2; 13,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 15,77</t>
+          <t>-7,5; 14,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 213,7</t>
+          <t>-14,66; 11,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 404,28</t>
+          <t>-47,06; 425,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 915,55</t>
+          <t>-70,69; 403,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 303,41</t>
+          <t>-44,35; 736,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-42,0; 277,93</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-59,17; 134,62</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>12,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>12,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,63</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,52</t>
+          <t>20,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>127,41%</t>
+          <t>15,94</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>143,87%</t>
+          <t>313,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>116,08%</t>
+          <t>256,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>160,16%</t>
+          <t>309,43%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>183,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>87,1%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 17,98</t>
+          <t>4,29; 20,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 16,65</t>
+          <t>3,84; 21,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 22,57</t>
+          <t>9,29; 29,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 28,08</t>
+          <t>9,17; 32,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,84; 425,13</t>
+          <t>1,59; 28,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,16; 471,98</t>
+          <t>27,59; 1500,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,76; 287,35</t>
+          <t>22,66; 1505,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,01; 363,69</t>
+          <t>68,95; 1159,24</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51,72; 542,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 231,77</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,73</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>-29,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-8,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 23,49</t>
+          <t>-6,97; 20,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 15,09</t>
+          <t>-29,66; 6,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 26,09</t>
+          <t>-22,79; 16,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 22,68</t>
+          <t>-20,63; 14,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 254,13</t>
+          <t>-13,68; 25,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 87,22</t>
+          <t>-39,78; 244,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 180,06</t>
+          <t>-72,67; 33,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 128,58</t>
+          <t>-60,4; 101,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-53,17; 71,36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-31,32; 92,89</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,44</t>
+          <t>26,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,61</t>
+          <t>26,08</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,88</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>133,88%</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>290,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>66,3%</t>
+          <t>142,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>112,43%</t>
+          <t>81,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33,56%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38,21%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 35,5</t>
+          <t>9,18; 43,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 30,79</t>
+          <t>6,92; 45,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 27,57</t>
+          <t>-3,47; 36,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,7; 50,81</t>
+          <t>-12,93; 28,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,51; 315,36</t>
+          <t>-10,57; 39,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,39; 251,92</t>
+          <t>27,55; 1171,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 190,83</t>
+          <t>20,17; 515,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,77; 297,56</t>
+          <t>-15,08; 361,18</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-43,14; 207,3</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-26,0; 179,29</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,25</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>126,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>104,43%</t>
+          <t>46,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>102,35%</t>
+          <t>83,6%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32,8%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38,38%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 13,1</t>
+          <t>4,36; 13,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,55</t>
+          <t>-0,69; 9,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,41</t>
+          <t>2,99; 14,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,79; 19,96</t>
+          <t>-1,36; 10,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,47; 169,33</t>
+          <t>-0,75; 15,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,87; 128,23</t>
+          <t>42,72; 253,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,59; 176,2</t>
+          <t>-6,68; 131,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>53,85; 182,53</t>
+          <t>19,82; 179,72</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 90,92</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 97,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
